--- a/Annotation/Annotation.xlsx
+++ b/Annotation/Annotation.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paddy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkenday\Documents\GitHub\iat-814-project\Annotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3782DA53-C04F-4123-9EB0-0FA023B4F9F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAC343D-78D6-4BF7-8EDA-0E5AB7355317}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annotation" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -429,16 +430,16 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.53125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -466,7 +467,7 @@
         <v>3979</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -480,7 +481,7 @@
         <v>3979</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -494,7 +495,7 @@
         <v>3979</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -508,7 +509,7 @@
         <v>3979</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -522,7 +523,7 @@
         <v>3979</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -536,7 +537,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -550,7 +551,7 @@
         <v>3979</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -564,7 +565,7 @@
         <v>3616</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -578,7 +579,7 @@
         <v>3976</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -592,7 +593,7 @@
         <v>3629</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -606,7 +607,7 @@
         <v>3981</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -620,7 +621,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -634,7 +635,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -648,7 +649,7 @@
         <v>3622</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -662,7 +663,7 @@
         <v>3979</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -676,7 +677,7 @@
         <v>3097</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -690,7 +691,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -704,7 +705,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -718,7 +719,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -732,7 +733,7 @@
         <v>3215</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -746,7 +747,7 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -760,7 +761,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -774,7 +775,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -788,7 +789,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -802,7 +803,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -816,7 +817,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -830,7 +831,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -844,7 +845,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -861,7 +862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -875,7 +876,7 @@
         <v>1556.80004882812</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -889,7 +890,7 @@
         <v>1697.80004882812</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -903,7 +904,7 @@
         <v>1697.80004882812</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -917,7 +918,7 @@
         <v>1863.80004882812</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -931,7 +932,7 @@
         <v>1863.80004882812</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -945,7 +946,7 @@
         <v>2014.80004882812</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -959,7 +960,7 @@
         <v>2002.80004882812</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -973,7 +974,7 @@
         <v>2148.80004882812</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -987,7 +988,7 @@
         <v>2304.80004882812</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>2213.80004882812</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1015,7 +1016,7 @@
         <v>2213.80004882812</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>2662.80004882812</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1043,7 +1044,7 @@
         <v>2206.80004882812</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1057,7 +1058,7 @@
         <v>2664.80004882812</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>2218.80004882812</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>2660.80004882812</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>2220.80004882812</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>2655.80004882812</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>19</v>
       </c>
